--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2B10E-6DA0-499D-A6C4-F922FD3EE5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296D6D9-7E13-4302-94A3-39F2CBF889B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="4860" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>commandCreateBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommandPlayAnim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色属性 及 范围限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋子战斗状态机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格自动化</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>game流程补充，游戏通关后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色攻击范围改为 角色控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色状态机改为移动到目标攻击距离内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏外升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害数值ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,6 +430,36 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296D6D9-7E13-4302-94A3-39F2CBF889B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E2EB5-B9B4-4DE8-A14D-9FE5C9F5ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4860" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>game流程补充，游戏通关后</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色攻击范围改为 角色控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色状态机改为移动到目标攻击距离内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏外升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +60,10 @@
   </si>
   <si>
     <t>伤害数值ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,11 +451,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E2EB5-B9B4-4DE8-A14D-9FE5C9F5ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED038E3-B188-47E1-9E79-09ABD7D2A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>game流程补充，游戏通关后</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>游戏保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2解决hfk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3fk解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fy9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fy9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fy9.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,52 +425,70 @@
     <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED038E3-B188-47E1-9E79-09ABD7D2A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E2190-F33B-4CA3-AA5A-7776C2B57CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>game流程补充，游戏通关后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏外升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,15 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fy9.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fy9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fy9.4</t>
+    <t>游戏全场景-》选择地图点拉近视野</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,81 +396,62 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E2190-F33B-4CA3-AA5A-7776C2B57CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106294C-5CAF-484D-AA5B-DEE8B3D6FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>game流程补充，游戏通关后</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,39 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害数值ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.2解决hfk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.3fk解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏全场景-》选择地图点拉近视野</t>
+    <t>天空盒，雾效，世界UI渲染次序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子，世界UI 渲染遮挡问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面 迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能炮塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -405,53 +385,34 @@
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/documents/todo.xlsx
+++ b/documents/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106294C-5CAF-484D-AA5B-DEE8B3D6FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5596A54-0D08-46D5-A79E-42E4354CCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>game流程补充，游戏通关后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏外升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天空盒，雾效，世界UI渲染次序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子，世界UI 渲染遮挡问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -397,21 +389,11 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
